--- a/Library/DB/图书管理系统数据库.xlsx
+++ b/Library/DB/图书管理系统数据库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aenlly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F7EA7-E865-4C66-B1AC-FEFE0CED6B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C31981-0743-4B01-998F-4342A2C5219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2430" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="155">
   <si>
     <t>图书管理系统数据库设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a_tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,9 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(11)</t>
-  </si>
-  <si>
     <t>nvarchar(5)</t>
   </si>
   <si>
@@ -474,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u_college</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u_tel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1为老师，0为学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,6 +607,34 @@
   </si>
   <si>
     <t>t_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为学生，1为老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院编号，外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1038,7 @@
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -1081,7 +1090,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -1094,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1120,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>2</v>
@@ -1138,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1146,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1155,13 +1164,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>8</v>
@@ -1170,7 +1179,7 @@
         <v>40</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1178,25 +1187,25 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -1210,31 +1219,31 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1">
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1242,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1254,13 +1263,13 @@
         <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
@@ -1269,39 +1278,39 @@
         <v>37</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1">
         <v>50</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1309,31 +1318,31 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1341,7 +1350,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -1350,27 +1359,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1379,22 +1388,22 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1402,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1411,16 +1420,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
@@ -1429,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -1440,21 +1449,21 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1475,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>1</v>
@@ -1501,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>2</v>
@@ -1519,30 +1528,30 @@
         <v>5</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>15</v>
+      <c r="A23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>7</v>
@@ -1551,73 +1560,39 @@
         <v>38</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>16</v>
+      <c r="A24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>152</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K24" s="1">
         <v>10</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1646,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>1</v>
@@ -1672,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>2</v>
@@ -1690,15 +1665,15 @@
         <v>5</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -1707,80 +1682,80 @@
         <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K32" s="1">
         <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>55</v>
+      <c r="A33" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K33" s="1">
         <v>50</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>65</v>
+      <c r="A34" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>8</v>
@@ -1789,171 +1764,191 @@
         <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>6</v>
+      <c r="A35" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -1962,7 +1957,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1970,7 +1965,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1983,13 +1978,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2009,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>2</v>
@@ -2027,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2035,31 +2030,31 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2067,142 +2062,156 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H55" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H57" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -2222,7 +2231,25 @@
         <v>5</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -2230,48 +2257,115 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K64" s="1">
+        <v>5</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="1">
+        <v>50</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" s="1">
+        <v>5</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="J66" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="H47:M47"/>
     <mergeCell ref="A29:F29"/>
@@ -2280,8 +2374,9 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="H29:M29"/>
     <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="H2:M2"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="H2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Library/DB/图书管理系统数据库.xlsx
+++ b/Library/DB/图书管理系统数据库.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aenlly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C31981-0743-4B01-998F-4342A2C5219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60556D0E-D6FF-476B-A6B2-A5F126271E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="155">
   <si>
     <t>图书管理系统数据库设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出版日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书籍类型表设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,6 +637,10 @@
   </si>
   <si>
     <t>学院编号，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1088,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1090,7 +1096,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -1103,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1129,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>2</v>
@@ -1147,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1155,31 +1161,31 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1187,31 +1193,31 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1219,31 +1225,31 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1">
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1251,66 +1257,66 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1">
         <v>50</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1318,68 +1324,68 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1388,22 +1394,22 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1411,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1420,16 +1426,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
@@ -1438,32 +1444,32 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1471,7 +1477,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1510,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>2</v>
@@ -1528,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1536,31 +1542,31 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1568,31 +1574,31 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" s="1">
         <v>10</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1621,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1647,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>2</v>
@@ -1665,97 +1671,97 @@
         <v>5</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" s="1">
         <v>50</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>8</v>
@@ -1764,30 +1770,30 @@
         <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1795,16 +1801,16 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1812,13 +1818,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1826,13 +1832,13 @@
         <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -1840,69 +1846,69 @@
         <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
@@ -1911,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -1922,33 +1928,33 @@
         <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -1957,7 +1963,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1965,7 +1971,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1978,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2004,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>2</v>
@@ -2022,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2030,31 +2036,31 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2062,129 +2068,135 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L51" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="M54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H55" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H57" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2205,13 +2217,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -2231,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>2</v>
@@ -2249,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -2257,31 +2269,31 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -2289,77 +2301,77 @@
         <v>15</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K64" s="1">
         <v>5</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1">
         <v>50</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K65" s="1">
         <v>5</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H66" s="5"/>
       <c r="J66" s="3"/>
